--- a/database/sidis/expdata/3704.xlsx
+++ b/database/sidis/expdata/3704.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F27B5-35EE-4DF1-98C5-82D4E45C0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB6DC8-12A8-F04C-B326-68E540E4D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1176" windowWidth="13170" windowHeight="11520" xr2:uid="{5908A5C3-F788-EA4E-BEEF-3D4248294186}"/>
+    <workbookView xWindow="520" yWindow="1180" windowWidth="13180" windowHeight="11520" xr2:uid="{5908A5C3-F788-EA4E-BEEF-3D4248294186}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>AUTcollins</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>zmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -444,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C8AE06-B6C0-4143-86E8-A81C65DAF47E}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,8 +501,11 @@
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.4500000000000002</v>
       </c>
@@ -545,8 +551,11 @@
       <c r="O2">
         <v>0.26</v>
       </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.4900000000000002</v>
       </c>
@@ -592,8 +601,11 @@
       <c r="O3">
         <v>0.32</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.52</v>
       </c>
@@ -639,8 +651,11 @@
       <c r="O4">
         <v>0.38</v>
       </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.5299999999999998</v>
       </c>
@@ -686,8 +701,11 @@
       <c r="O5">
         <v>0.45</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.5499999999999998</v>
       </c>
@@ -733,8 +751,11 @@
       <c r="O6">
         <v>0.52</v>
       </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.57</v>
       </c>
@@ -780,8 +801,11 @@
       <c r="O7">
         <v>0.6</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.59</v>
       </c>
@@ -827,8 +851,11 @@
       <c r="O8">
         <v>0.7</v>
       </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.61</v>
       </c>
@@ -874,8 +901,11 @@
       <c r="O9">
         <v>0.76</v>
       </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2.66</v>
       </c>
@@ -921,8 +951,11 @@
       <c r="O10">
         <v>0.84</v>
       </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.56</v>
       </c>
@@ -967,6 +1000,9 @@
       </c>
       <c r="O11">
         <v>1.2</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/sidis/expdata/3704.xlsx
+++ b/database/sidis/expdata/3704.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB6DC8-12A8-F04C-B326-68E540E4D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8948FC-26DD-F54C-BEFF-30B9B0796BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1180" windowWidth="13180" windowHeight="11520" xr2:uid="{5908A5C3-F788-EA4E-BEEF-3D4248294186}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,13 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C8AE06-B6C0-4143-86E8-A81C65DAF47E}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -505,7 +505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2.4500000000000002</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2.4900000000000002</v>
       </c>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2.52</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2.5299999999999998</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2.5499999999999998</v>
       </c>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2.57</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.189</v>
+        <v>-1.89E-2</v>
       </c>
       <c r="H7">
         <v>2.8500000000000001E-2</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2.59</v>
       </c>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2.61</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2.66</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2.56</v>
       </c>
